--- a/inst/extdata/expdb_example.xlsx
+++ b/inst/extdata/expdb_example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996E2AE6-E6E0-4FE2-9E02-213D76B8A161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A44BE2-6431-413C-834E-5E58D0EEA650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="813" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="813" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="12" r:id="rId1"/>
@@ -17,17 +17,17 @@
     <sheet name="Genotypes" sheetId="9" r:id="rId7"/>
     <sheet name="Trials" sheetId="8" r:id="rId8"/>
     <sheet name="Design" sheetId="10" r:id="rId9"/>
-    <sheet name="Phenotype_Long" sheetId="13" r:id="rId10"/>
-    <sheet name="Phenotype_Wide" sheetId="16" r:id="rId11"/>
-    <sheet name="Phenotype_Comuns" sheetId="17" r:id="rId12"/>
+    <sheet name="Phenotype_Wide" sheetId="13" r:id="rId10"/>
+    <sheet name="Phenotype_Long" sheetId="18" r:id="rId11"/>
+    <sheet name="Phenotype_Columns" sheetId="17" r:id="rId12"/>
     <sheet name="Irrigation" sheetId="6" r:id="rId13"/>
     <sheet name="Fertilization" sheetId="7" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Design!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Design!$A$1:$G$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Phenotype_Long!$A$1:$K$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Phenotype_Wide!$A$1:$L$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -160,18 +160,12 @@
     <t>S3</t>
   </si>
   <si>
-    <t>S4</t>
-  </si>
-  <si>
     <t>TimestampFormat</t>
   </si>
   <si>
     <t>Yield</t>
   </si>
   <si>
-    <t>Biomass</t>
-  </si>
-  <si>
     <t>Demo</t>
   </si>
   <si>
@@ -217,39 +211,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>P_ZadoksScore</t>
-  </si>
-  <si>
     <t>Plant</t>
   </si>
   <si>
-    <t>Zadoks score</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>O_HaunIndex</t>
-  </si>
-  <si>
-    <t>Organ</t>
-  </si>
-  <si>
-    <t>Haun index</t>
-  </si>
-  <si>
-    <t>Haun index for stem (normally for main stem)</t>
-  </si>
-  <si>
-    <t>P_PlantHeight</t>
-  </si>
-  <si>
-    <t>Plant height</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -274,9 +238,6 @@
     <t>Suntop</t>
   </si>
   <si>
-    <t>Spitfire</t>
-  </si>
-  <si>
     <t>Hartog</t>
   </si>
   <si>
@@ -301,7 +262,70 @@
     <t>gatton-15-hourly</t>
   </si>
   <si>
-    <t>gatton-2015-hourly.met</t>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>M_EstablishmentCount</t>
+  </si>
+  <si>
+    <t>P_StemNumber</t>
+  </si>
+  <si>
+    <t>F_ThousandGrainWeight</t>
+  </si>
+  <si>
+    <t>F_Protein</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>RHN</t>
+  </si>
+  <si>
+    <t>RLN</t>
+  </si>
+  <si>
+    <t>urea</t>
+  </si>
+  <si>
+    <t>EstablishmentCount</t>
+  </si>
+  <si>
+    <t>Number of plants in 1 linear meter</t>
+  </si>
+  <si>
+    <t>Stem number per plant</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Thousand grain weight</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Total weight per thousand grains</t>
+  </si>
+  <si>
+    <t>Protein concentration</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>gatton-2015-hourly.csv</t>
+  </si>
+  <si>
+    <t>%Y-%m-%d %H:%M:%S</t>
+  </si>
+  <si>
+    <t>hourly</t>
   </si>
 </sst>
 </file>
@@ -311,7 +335,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +499,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -777,7 +814,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -827,12 +864,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -851,13 +889,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -865,8 +897,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -913,6 +946,7 @@
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="XLConnect.String" xfId="46" xr:uid="{775A4554-511F-456D-B46C-4B5ED911627F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1259,30 +1293,30 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1292,248 +1326,701 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:S205"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G21" sqref="G21"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.1796875" style="9"/>
-    <col min="15" max="15" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.1796875" style="7"/>
+    <col min="15" max="15" width="10.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45</v>
+      </c>
+      <c r="J2" s="5">
+        <v>34</v>
+      </c>
+      <c r="K2" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I3" s="5">
+        <v>33</v>
+      </c>
+      <c r="J3" s="5">
+        <v>39</v>
+      </c>
+      <c r="K3" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I4" s="5">
+        <v>40</v>
+      </c>
+      <c r="J4" s="5">
+        <v>35</v>
+      </c>
+      <c r="K4" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I5" s="5">
+        <v>41</v>
+      </c>
+      <c r="J5" s="5">
         <v>31</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="K5" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I6" s="5">
+        <v>37</v>
+      </c>
+      <c r="J6" s="5">
+        <v>43</v>
+      </c>
+      <c r="K6" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I7" s="5">
+        <v>51</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45</v>
+      </c>
+      <c r="K7" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I8" s="5">
+        <v>51</v>
+      </c>
+      <c r="J8" s="5">
+        <v>33</v>
+      </c>
+      <c r="K8" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I9" s="5">
+        <v>41</v>
+      </c>
+      <c r="J9" s="5">
+        <v>37</v>
+      </c>
+      <c r="K9" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I10" s="5">
+        <v>40</v>
+      </c>
+      <c r="J10" s="5">
+        <v>41</v>
+      </c>
+      <c r="K10" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45</v>
+      </c>
+      <c r="J11" s="5">
+        <v>34</v>
+      </c>
+      <c r="K11" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I12" s="5">
+        <v>47</v>
+      </c>
+      <c r="J12" s="5">
+        <v>46</v>
+      </c>
+      <c r="K12" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>17</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I13" s="5">
+        <v>52</v>
+      </c>
+      <c r="J13" s="5">
+        <v>26</v>
+      </c>
+      <c r="K13" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>18</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I14" s="5">
+        <v>38</v>
+      </c>
+      <c r="J14" s="5">
+        <v>42</v>
+      </c>
+      <c r="K14" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5">
+        <v>19</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I15" s="5">
+        <v>42</v>
+      </c>
+      <c r="J15" s="5">
+        <v>38</v>
+      </c>
+      <c r="K15" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I16" s="5">
+        <v>42</v>
+      </c>
+      <c r="J16" s="5">
+        <v>26</v>
+      </c>
+      <c r="K16" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>21</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I17" s="5">
+        <v>41</v>
+      </c>
+      <c r="J17" s="5">
+        <v>50</v>
+      </c>
+      <c r="K17" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L99" s="14"/>
-    </row>
-    <row r="100" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L100" s="14"/>
-    </row>
-    <row r="101" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L101" s="14"/>
-    </row>
-    <row r="102" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L102" s="13"/>
-    </row>
-    <row r="103" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="11"/>
-      <c r="O103" s="13"/>
-      <c r="P103" s="13"/>
-    </row>
-    <row r="104" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="11"/>
-      <c r="O104" s="13"/>
-      <c r="P104" s="13"/>
-    </row>
-    <row r="105" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="11"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
-    </row>
-    <row r="106" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="11"/>
-      <c r="O106" s="13"/>
-      <c r="P106" s="13"/>
-      <c r="Q106" s="13"/>
-      <c r="R106" s="12"/>
-    </row>
-    <row r="107" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="11"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="12"/>
-    </row>
-    <row r="108" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="11"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="13"/>
-      <c r="Q108" s="13"/>
-      <c r="R108" s="12"/>
-    </row>
-    <row r="109" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L109" s="13"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="11"/>
-      <c r="O109" s="13"/>
-      <c r="P109" s="13"/>
-      <c r="Q109" s="13"/>
-      <c r="R109" s="12"/>
-    </row>
-    <row r="110" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
-      <c r="Q110" s="13"/>
-      <c r="R110" s="12"/>
-    </row>
-    <row r="111" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L111" s="13"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="13"/>
-      <c r="P111" s="13"/>
-      <c r="Q111" s="13"/>
-      <c r="R111" s="12"/>
-    </row>
-    <row r="112" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="11"/>
-      <c r="O112" s="13"/>
-      <c r="P112" s="13"/>
-      <c r="Q112" s="13"/>
-      <c r="R112" s="12"/>
-    </row>
-    <row r="113" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="11"/>
-      <c r="O113" s="13"/>
-      <c r="P113" s="13"/>
-      <c r="Q113" s="13"/>
-      <c r="R113" s="12"/>
-    </row>
-    <row r="114" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L114" s="13"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="13"/>
-      <c r="P114" s="13"/>
-      <c r="Q114" s="13"/>
-      <c r="R114" s="12"/>
-    </row>
-    <row r="115" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="11"/>
-      <c r="Q115" s="13"/>
-      <c r="R115" s="12"/>
-    </row>
-    <row r="116" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="11"/>
-      <c r="Q116" s="13"/>
-      <c r="R116" s="12"/>
-    </row>
-    <row r="117" spans="12:18" x14ac:dyDescent="0.35">
-      <c r="L117" s="13"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="11"/>
-      <c r="Q117" s="13"/>
-      <c r="R117" s="12"/>
-    </row>
-    <row r="136" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q136" s="15"/>
-      <c r="R136" s="15"/>
-      <c r="S136" s="15"/>
-    </row>
-    <row r="138" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q138" s="15"/>
-      <c r="R138" s="15"/>
-      <c r="S138" s="15"/>
-    </row>
-    <row r="140" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="Q140" s="15"/>
-      <c r="R140" s="15"/>
-      <c r="S140" s="15"/>
-    </row>
-    <row r="200" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O200" s="17"/>
-      <c r="P200" s="17"/>
-      <c r="Q200" s="17"/>
-    </row>
-    <row r="201" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O201" s="17"/>
-      <c r="P201" s="17"/>
-      <c r="Q201" s="17"/>
-    </row>
-    <row r="202" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O202" s="17"/>
-      <c r="P202" s="17"/>
-      <c r="Q202" s="17"/>
-    </row>
-    <row r="203" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O203" s="17"/>
-      <c r="P203" s="17"/>
-      <c r="Q203" s="17"/>
-    </row>
-    <row r="204" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O204" s="17"/>
-      <c r="P204" s="17"/>
-      <c r="Q204" s="17"/>
-    </row>
-    <row r="205" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O205" s="17"/>
-      <c r="P205" s="17"/>
-      <c r="Q205" s="17"/>
+      <c r="G18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I18" s="5">
+        <v>37</v>
+      </c>
+      <c r="J18" s="5">
+        <v>40</v>
+      </c>
+      <c r="K18" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5">
+        <v>23</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="3">
+        <v>42193</v>
+      </c>
+      <c r="I19" s="5">
+        <v>42</v>
+      </c>
+      <c r="J19" s="5">
+        <v>35</v>
+      </c>
+      <c r="K19" s="5">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1542,254 +2029,3561 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A9300D-8331-4ED9-96F9-6371DF17678B}">
-  <dimension ref="A1:R205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B499FDA3-4DEA-49B2-9220-9983F4156D83}">
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G21" sqref="G21"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="9.1796875" style="9"/>
-    <col min="14" max="14" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.1796875" style="7"/>
+    <col min="14" max="14" width="10.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="J1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K99" s="14"/>
-    </row>
-    <row r="100" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K100" s="14"/>
-    </row>
-    <row r="101" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K101" s="14"/>
-    </row>
-    <row r="102" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K102" s="14"/>
-    </row>
-    <row r="103" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="11"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="14"/>
-    </row>
-    <row r="104" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K104" s="14"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="11"/>
-      <c r="N104" s="14"/>
-      <c r="O104" s="14"/>
-    </row>
-    <row r="105" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K105" s="14"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="14"/>
-      <c r="O105" s="14"/>
-    </row>
-    <row r="106" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="11"/>
-      <c r="N106" s="14"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="14"/>
-      <c r="Q106" s="12"/>
-    </row>
-    <row r="107" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K107" s="14"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="11"/>
-      <c r="N107" s="14"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="12"/>
-    </row>
-    <row r="108" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="12"/>
-    </row>
-    <row r="109" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="11"/>
-      <c r="N109" s="14"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="12"/>
-    </row>
-    <row r="110" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K110" s="14"/>
-      <c r="L110" s="14"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="14"/>
-      <c r="O110" s="14"/>
-      <c r="P110" s="14"/>
-      <c r="Q110" s="12"/>
-    </row>
-    <row r="111" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K111" s="14"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="14"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="14"/>
-      <c r="Q111" s="12"/>
-    </row>
-    <row r="112" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K112" s="14"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="14"/>
-      <c r="Q112" s="12"/>
-    </row>
-    <row r="113" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K113" s="14"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="11"/>
-      <c r="N113" s="14"/>
-      <c r="O113" s="14"/>
-      <c r="P113" s="14"/>
-      <c r="Q113" s="12"/>
-    </row>
-    <row r="114" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K114" s="14"/>
-      <c r="L114" s="14"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="14"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="12"/>
-    </row>
-    <row r="115" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K115" s="14"/>
-      <c r="L115" s="14"/>
-      <c r="M115" s="11"/>
-      <c r="P115" s="14"/>
-      <c r="Q115" s="12"/>
-    </row>
-    <row r="116" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K116" s="14"/>
-      <c r="L116" s="14"/>
-      <c r="M116" s="11"/>
-      <c r="P116" s="14"/>
-      <c r="Q116" s="12"/>
-    </row>
-    <row r="117" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K117" s="14"/>
-      <c r="L117" s="14"/>
-      <c r="M117" s="11"/>
-      <c r="P117" s="14"/>
-      <c r="Q117" s="12"/>
-    </row>
-    <row r="136" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P136" s="15"/>
-      <c r="Q136" s="15"/>
-      <c r="R136" s="15"/>
-    </row>
-    <row r="138" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P138" s="15"/>
-      <c r="Q138" s="15"/>
-      <c r="R138" s="15"/>
-    </row>
-    <row r="140" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P140" s="15"/>
-      <c r="Q140" s="15"/>
-      <c r="R140" s="15"/>
-    </row>
-    <row r="200" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N200" s="17"/>
-      <c r="O200" s="17"/>
-      <c r="P200" s="17"/>
-    </row>
-    <row r="201" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N201" s="17"/>
-      <c r="O201" s="17"/>
-      <c r="P201" s="17"/>
-    </row>
-    <row r="202" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N202" s="17"/>
-      <c r="O202" s="17"/>
-      <c r="P202" s="17"/>
-    </row>
-    <row r="203" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N203" s="17"/>
-      <c r="O203" s="17"/>
-      <c r="P203" s="17"/>
-    </row>
-    <row r="204" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N204" s="17"/>
-      <c r="O204" s="17"/>
-      <c r="P204" s="17"/>
-    </row>
-    <row r="205" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N205" s="17"/>
-      <c r="O205" s="17"/>
-      <c r="P205" s="17"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J11" s="5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>17</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>18</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5">
+        <v>19</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J16" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>21</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5">
+        <v>22</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5">
+        <v>23</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>42206</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5">
+        <v>4</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J22" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5">
+        <v>6</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>7</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J24" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5">
+        <v>8</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J25" s="5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5">
+        <v>9</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J26" s="5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="5">
+        <v>10</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="5">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5">
+        <v>11</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J28" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="5">
+        <v>3</v>
+      </c>
+      <c r="F29" s="5">
+        <v>15</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J29" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5">
+        <v>16</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J30" s="5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5">
+        <v>17</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J31" s="5">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="5">
+        <v>3</v>
+      </c>
+      <c r="F32" s="5">
+        <v>18</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J32" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="5">
+        <v>3</v>
+      </c>
+      <c r="F33" s="5">
+        <v>19</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J33" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5">
+        <v>20</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="5">
+        <v>3</v>
+      </c>
+      <c r="F35" s="5">
+        <v>21</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5">
+        <v>22</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J36" s="5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="5">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5">
+        <v>23</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>42209</v>
+      </c>
+      <c r="J37" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="5">
+        <v>3</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J38" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="5">
+        <v>3</v>
+      </c>
+      <c r="F39" s="5">
+        <v>4</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J39" s="5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3</v>
+      </c>
+      <c r="F40" s="5">
+        <v>5</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J40" s="5">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3</v>
+      </c>
+      <c r="F41" s="5">
+        <v>6</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J41" s="5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="5">
+        <v>3</v>
+      </c>
+      <c r="F42" s="5">
+        <v>7</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J42" s="5">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="5">
+        <v>3</v>
+      </c>
+      <c r="F43" s="5">
+        <v>8</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J43" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="5">
+        <v>3</v>
+      </c>
+      <c r="F44" s="5">
+        <v>9</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J44" s="5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3</v>
+      </c>
+      <c r="F45" s="5">
+        <v>10</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J45" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3</v>
+      </c>
+      <c r="F46" s="5">
+        <v>11</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J46" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="5">
+        <v>3</v>
+      </c>
+      <c r="F47" s="5">
+        <v>15</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J47" s="5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="5">
+        <v>3</v>
+      </c>
+      <c r="F48" s="5">
+        <v>16</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J48" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="5">
+        <v>3</v>
+      </c>
+      <c r="F49" s="5">
+        <v>17</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J49" s="5">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="5">
+        <v>18</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J50" s="5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="5">
+        <v>3</v>
+      </c>
+      <c r="F51" s="5">
+        <v>19</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J51" s="5">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="5">
+        <v>3</v>
+      </c>
+      <c r="F52" s="5">
+        <v>20</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J52" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="5">
+        <v>3</v>
+      </c>
+      <c r="F53" s="5">
+        <v>21</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J53" s="5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="5">
+        <v>3</v>
+      </c>
+      <c r="F54" s="5">
+        <v>22</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J54" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="5">
+        <v>3</v>
+      </c>
+      <c r="F55" s="5">
+        <v>23</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3">
+        <v>42212</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="5">
+        <v>3</v>
+      </c>
+      <c r="F56" s="5">
+        <v>3</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J56" s="5">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="5">
+        <v>3</v>
+      </c>
+      <c r="F57" s="5">
+        <v>4</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J57" s="5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="5">
+        <v>3</v>
+      </c>
+      <c r="F58" s="5">
+        <v>5</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J58" s="5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="5">
+        <v>3</v>
+      </c>
+      <c r="F59" s="5">
+        <v>6</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J59" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="5">
+        <v>3</v>
+      </c>
+      <c r="F60" s="5">
+        <v>7</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1</v>
+      </c>
+      <c r="I60" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J60" s="5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="5">
+        <v>3</v>
+      </c>
+      <c r="F61" s="5">
+        <v>8</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1</v>
+      </c>
+      <c r="I61" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J61" s="5">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="5">
+        <v>3</v>
+      </c>
+      <c r="F62" s="5">
+        <v>9</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1</v>
+      </c>
+      <c r="I62" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J62" s="5">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="5">
+        <v>3</v>
+      </c>
+      <c r="F63" s="5">
+        <v>10</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+      <c r="I63" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J63" s="5">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="5">
+        <v>3</v>
+      </c>
+      <c r="F64" s="5">
+        <v>11</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
+      <c r="I64" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J64" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="5">
+        <v>3</v>
+      </c>
+      <c r="F65" s="5">
+        <v>15</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" s="5">
+        <v>1</v>
+      </c>
+      <c r="I65" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J65" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3</v>
+      </c>
+      <c r="F66" s="5">
+        <v>16</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" s="5">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J66" s="5">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="5">
+        <v>3</v>
+      </c>
+      <c r="F67" s="5">
+        <v>17</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" s="5">
+        <v>1</v>
+      </c>
+      <c r="I67" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J67" s="5">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="5">
+        <v>3</v>
+      </c>
+      <c r="F68" s="5">
+        <v>18</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" s="5">
+        <v>1</v>
+      </c>
+      <c r="I68" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J68" s="5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="5">
+        <v>3</v>
+      </c>
+      <c r="F69" s="5">
+        <v>19</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J69" s="5">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="5">
+        <v>3</v>
+      </c>
+      <c r="F70" s="5">
+        <v>20</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1</v>
+      </c>
+      <c r="I70" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J70" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="5">
+        <v>3</v>
+      </c>
+      <c r="F71" s="5">
+        <v>21</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1</v>
+      </c>
+      <c r="I71" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J71" s="5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" s="5">
+        <v>3</v>
+      </c>
+      <c r="F72" s="5">
+        <v>22</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1</v>
+      </c>
+      <c r="I72" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J72" s="5">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="5">
+        <v>3</v>
+      </c>
+      <c r="F73" s="5">
+        <v>23</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1</v>
+      </c>
+      <c r="I73" s="3">
+        <v>42215</v>
+      </c>
+      <c r="J73" s="5">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" s="5">
+        <v>3</v>
+      </c>
+      <c r="F74" s="5">
+        <v>3</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H74" s="5">
+        <v>1</v>
+      </c>
+      <c r="I74" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J74" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="5">
+        <v>3</v>
+      </c>
+      <c r="F75" s="5">
+        <v>4</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H75" s="5">
+        <v>1</v>
+      </c>
+      <c r="I75" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J75" s="5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E76" s="5">
+        <v>3</v>
+      </c>
+      <c r="F76" s="5">
+        <v>5</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76" s="5">
+        <v>1</v>
+      </c>
+      <c r="I76" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J76" s="5">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" s="5">
+        <v>3</v>
+      </c>
+      <c r="F77" s="5">
+        <v>6</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1</v>
+      </c>
+      <c r="I77" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J77" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="5">
+        <v>3</v>
+      </c>
+      <c r="F78" s="5">
+        <v>7</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1</v>
+      </c>
+      <c r="I78" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J78" s="5">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="5">
+        <v>3</v>
+      </c>
+      <c r="F79" s="5">
+        <v>8</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1</v>
+      </c>
+      <c r="I79" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J79" s="5">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="5">
+        <v>3</v>
+      </c>
+      <c r="F80" s="5">
+        <v>9</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1</v>
+      </c>
+      <c r="I80" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J80" s="5">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" s="5">
+        <v>3</v>
+      </c>
+      <c r="F81" s="5">
+        <v>10</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H81" s="5">
+        <v>1</v>
+      </c>
+      <c r="I81" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J81" s="5">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="5">
+        <v>3</v>
+      </c>
+      <c r="F82" s="5">
+        <v>11</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1</v>
+      </c>
+      <c r="I82" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J82" s="5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="5">
+        <v>3</v>
+      </c>
+      <c r="F83" s="5">
+        <v>15</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" s="5">
+        <v>1</v>
+      </c>
+      <c r="I83" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J83" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" s="5">
+        <v>3</v>
+      </c>
+      <c r="F84" s="5">
+        <v>16</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1</v>
+      </c>
+      <c r="I84" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J84" s="5">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" s="5">
+        <v>3</v>
+      </c>
+      <c r="F85" s="5">
+        <v>17</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H85" s="5">
+        <v>1</v>
+      </c>
+      <c r="I85" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J85" s="5">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="5">
+        <v>3</v>
+      </c>
+      <c r="F86" s="5">
+        <v>18</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1</v>
+      </c>
+      <c r="I86" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J86" s="5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="5">
+        <v>3</v>
+      </c>
+      <c r="F87" s="5">
+        <v>19</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" s="5">
+        <v>1</v>
+      </c>
+      <c r="I87" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J87" s="5">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88" s="5">
+        <v>3</v>
+      </c>
+      <c r="F88" s="5">
+        <v>20</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H88" s="5">
+        <v>1</v>
+      </c>
+      <c r="I88" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J88" s="5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" s="5">
+        <v>3</v>
+      </c>
+      <c r="F89" s="5">
+        <v>21</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" s="5">
+        <v>1</v>
+      </c>
+      <c r="I89" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J89" s="5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E90" s="5">
+        <v>3</v>
+      </c>
+      <c r="F90" s="5">
+        <v>22</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H90" s="5">
+        <v>1</v>
+      </c>
+      <c r="I90" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J90" s="5">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" s="5">
+        <v>3</v>
+      </c>
+      <c r="F91" s="5">
+        <v>23</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H91" s="5">
+        <v>1</v>
+      </c>
+      <c r="I91" s="3">
+        <v>42219</v>
+      </c>
+      <c r="J91" s="5">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="5">
+        <v>3</v>
+      </c>
+      <c r="F92" s="5">
+        <v>3</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H92" s="5">
+        <v>1</v>
+      </c>
+      <c r="I92" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J92" s="5">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93" s="5">
+        <v>3</v>
+      </c>
+      <c r="F93" s="5">
+        <v>4</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" s="5">
+        <v>1</v>
+      </c>
+      <c r="I93" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J93" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" s="5">
+        <v>3</v>
+      </c>
+      <c r="F94" s="5">
+        <v>5</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H94" s="5">
+        <v>1</v>
+      </c>
+      <c r="I94" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J94" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="5">
+        <v>3</v>
+      </c>
+      <c r="F95" s="5">
+        <v>6</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H95" s="5">
+        <v>1</v>
+      </c>
+      <c r="I95" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J95" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="5">
+        <v>3</v>
+      </c>
+      <c r="F96" s="5">
+        <v>7</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H96" s="5">
+        <v>1</v>
+      </c>
+      <c r="I96" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J96" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" s="5">
+        <v>3</v>
+      </c>
+      <c r="F97" s="5">
+        <v>8</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" s="5">
+        <v>1</v>
+      </c>
+      <c r="I97" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J97" s="5">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" s="5">
+        <v>3</v>
+      </c>
+      <c r="F98" s="5">
+        <v>9</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H98" s="5">
+        <v>1</v>
+      </c>
+      <c r="I98" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J98" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E99" s="5">
+        <v>3</v>
+      </c>
+      <c r="F99" s="5">
+        <v>10</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H99" s="5">
+        <v>1</v>
+      </c>
+      <c r="I99" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J99" s="5">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E100" s="5">
+        <v>3</v>
+      </c>
+      <c r="F100" s="5">
+        <v>11</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H100" s="5">
+        <v>1</v>
+      </c>
+      <c r="I100" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J100" s="5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="5">
+        <v>3</v>
+      </c>
+      <c r="F101" s="5">
+        <v>15</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H101" s="5">
+        <v>1</v>
+      </c>
+      <c r="I101" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J101" s="5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A102" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102" s="5">
+        <v>3</v>
+      </c>
+      <c r="F102" s="5">
+        <v>16</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H102" s="5">
+        <v>1</v>
+      </c>
+      <c r="I102" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J102" s="5">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A103" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E103" s="5">
+        <v>3</v>
+      </c>
+      <c r="F103" s="5">
+        <v>17</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H103" s="5">
+        <v>1</v>
+      </c>
+      <c r="I103" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J103" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L103" s="11"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A104" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E104" s="5">
+        <v>3</v>
+      </c>
+      <c r="F104" s="5">
+        <v>18</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H104" s="5">
+        <v>1</v>
+      </c>
+      <c r="I104" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J104" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="L104" s="11"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A105" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="5">
+        <v>3</v>
+      </c>
+      <c r="F105" s="5">
+        <v>19</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" s="5">
+        <v>1</v>
+      </c>
+      <c r="I105" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J105" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="L105" s="11"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A106" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="5">
+        <v>3</v>
+      </c>
+      <c r="F106" s="5">
+        <v>20</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H106" s="5">
+        <v>1</v>
+      </c>
+      <c r="I106" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J106" s="5">
+        <v>8</v>
+      </c>
+      <c r="L106" s="11"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="10"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A107" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107" s="5">
+        <v>3</v>
+      </c>
+      <c r="F107" s="5">
+        <v>21</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H107" s="5">
+        <v>1</v>
+      </c>
+      <c r="I107" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J107" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="L107" s="11"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="10"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A108" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E108" s="5">
+        <v>3</v>
+      </c>
+      <c r="F108" s="5">
+        <v>22</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H108" s="5">
+        <v>1</v>
+      </c>
+      <c r="I108" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J108" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="L108" s="11"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="10"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A109" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="5">
+        <v>3</v>
+      </c>
+      <c r="F109" s="5">
+        <v>23</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H109" s="5">
+        <v>1</v>
+      </c>
+      <c r="I109" s="3">
+        <v>42228</v>
+      </c>
+      <c r="J109" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="L109" s="11"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1799,243 +5593,712 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF168F87-6153-46F1-B31A-82AB581E3C1A}">
-  <dimension ref="A1:Q205"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G21" sqref="G21"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9.1796875" style="9"/>
-    <col min="13" max="13" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="15.1796875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="8" customWidth="1"/>
+    <col min="3" max="7" width="15.1796875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G2" s="7">
+        <v>5.05</v>
+      </c>
+      <c r="H2" s="7">
+        <v>33.81</v>
+      </c>
+      <c r="I2" s="7">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4.34</v>
+      </c>
+      <c r="H3" s="7">
+        <v>37.74</v>
+      </c>
+      <c r="I3" s="7">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="E4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H4" s="7">
+        <v>36.51</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="E5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H5" s="7">
+        <v>35.35</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H6" s="7">
+        <v>37.369999999999997</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4.28</v>
+      </c>
+      <c r="H7" s="7">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="H8" s="7">
+        <v>37.35</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4.78</v>
+      </c>
+      <c r="H9" s="7">
+        <v>33.64</v>
+      </c>
+      <c r="I9" s="7">
+        <v>9.4700000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3.38</v>
+      </c>
+      <c r="H10" s="7">
+        <v>37.03</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G11" s="7">
+        <v>5.12</v>
+      </c>
+      <c r="H11" s="7">
+        <v>33.4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>16</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H12" s="7">
+        <v>28.91</v>
+      </c>
+      <c r="I12" s="7">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>17</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H13" s="7">
+        <v>32</v>
+      </c>
+      <c r="I13" s="7">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5.13</v>
+      </c>
+      <c r="H14" s="7">
+        <v>34.4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>19</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G15" s="7">
+        <v>4.74</v>
+      </c>
+      <c r="H15" s="7">
+        <v>30.43</v>
+      </c>
+      <c r="I15" s="7">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G16" s="7">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H16" s="7">
+        <v>29.2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>14.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G17" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="H17" s="7">
+        <v>30.08</v>
+      </c>
+      <c r="I17" s="7">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J99" s="14"/>
-    </row>
-    <row r="100" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J100" s="14"/>
-    </row>
-    <row r="101" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J101" s="14"/>
-    </row>
-    <row r="102" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J102" s="14"/>
-    </row>
-    <row r="103" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="11"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
-    </row>
-    <row r="104" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="14"/>
-    </row>
-    <row r="105" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="14"/>
-      <c r="N105" s="14"/>
-    </row>
-    <row r="106" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
-      <c r="L106" s="11"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="12"/>
-    </row>
-    <row r="107" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J107" s="14"/>
-      <c r="K107" s="14"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="14"/>
-      <c r="N107" s="14"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="12"/>
-    </row>
-    <row r="108" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="11"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="12"/>
-    </row>
-    <row r="109" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
-      <c r="L109" s="11"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="12"/>
-    </row>
-    <row r="110" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J110" s="14"/>
-      <c r="K110" s="14"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="14"/>
-      <c r="N110" s="14"/>
-      <c r="O110" s="14"/>
-      <c r="P110" s="12"/>
-    </row>
-    <row r="111" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="14"/>
-      <c r="N111" s="14"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="12"/>
-    </row>
-    <row r="112" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J112" s="14"/>
-      <c r="K112" s="14"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="14"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="12"/>
-    </row>
-    <row r="113" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J113" s="14"/>
-      <c r="K113" s="14"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="14"/>
-      <c r="N113" s="14"/>
-      <c r="O113" s="14"/>
-      <c r="P113" s="12"/>
-    </row>
-    <row r="114" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J114" s="14"/>
-      <c r="K114" s="14"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="14"/>
-      <c r="N114" s="14"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="12"/>
-    </row>
-    <row r="115" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J115" s="14"/>
-      <c r="K115" s="14"/>
-      <c r="L115" s="11"/>
-      <c r="O115" s="14"/>
-      <c r="P115" s="12"/>
-    </row>
-    <row r="116" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
-      <c r="L116" s="11"/>
-      <c r="O116" s="14"/>
-      <c r="P116" s="12"/>
-    </row>
-    <row r="117" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J117" s="14"/>
-      <c r="K117" s="14"/>
-      <c r="L117" s="11"/>
-      <c r="O117" s="14"/>
-      <c r="P117" s="12"/>
-    </row>
-    <row r="136" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O136" s="15"/>
-      <c r="P136" s="15"/>
-      <c r="Q136" s="15"/>
-    </row>
-    <row r="138" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O138" s="15"/>
-      <c r="P138" s="15"/>
-      <c r="Q138" s="15"/>
-    </row>
-    <row r="140" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O140" s="15"/>
-      <c r="P140" s="15"/>
-      <c r="Q140" s="15"/>
-    </row>
-    <row r="200" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="M200" s="17"/>
-      <c r="N200" s="17"/>
-      <c r="O200" s="17"/>
-    </row>
-    <row r="201" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="M201" s="17"/>
-      <c r="N201" s="17"/>
-      <c r="O201" s="17"/>
-    </row>
-    <row r="202" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="M202" s="17"/>
-      <c r="N202" s="17"/>
-      <c r="O202" s="17"/>
-    </row>
-    <row r="203" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="M203" s="17"/>
-      <c r="N203" s="17"/>
-      <c r="O203" s="17"/>
-    </row>
-    <row r="204" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="M204" s="17"/>
-      <c r="N204" s="17"/>
-      <c r="O204" s="17"/>
-    </row>
-    <row r="205" spans="13:15" x14ac:dyDescent="0.35">
-      <c r="M205" s="17"/>
-      <c r="N205" s="17"/>
-      <c r="O205" s="17"/>
+      <c r="E18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5.07</v>
+      </c>
+      <c r="H18" s="7">
+        <v>32.08</v>
+      </c>
+      <c r="I18" s="7">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>23</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3">
+        <v>42313</v>
+      </c>
+      <c r="G19" s="7">
+        <v>4.51</v>
+      </c>
+      <c r="H19" s="7">
+        <v>26.84</v>
+      </c>
+      <c r="I19" s="7">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="99" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E99" s="11"/>
+    </row>
+    <row r="100" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E100" s="11"/>
+    </row>
+    <row r="101" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E101" s="11"/>
+    </row>
+    <row r="102" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E102" s="11"/>
+    </row>
+    <row r="103" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="11"/>
+    </row>
+    <row r="104" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="11"/>
+    </row>
+    <row r="105" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="11"/>
+    </row>
+    <row r="106" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="10"/>
+    </row>
+    <row r="107" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="10"/>
+    </row>
+    <row r="108" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="10"/>
+    </row>
+    <row r="109" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="10"/>
+    </row>
+    <row r="110" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="10"/>
+    </row>
+    <row r="111" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="10"/>
+    </row>
+    <row r="112" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="10"/>
+    </row>
+    <row r="113" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="10"/>
+    </row>
+    <row r="114" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="10"/>
+    </row>
+    <row r="115" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="9"/>
+      <c r="I115" s="10"/>
+    </row>
+    <row r="116" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="9"/>
+      <c r="I116" s="10"/>
+    </row>
+    <row r="117" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="9"/>
+      <c r="I117" s="10"/>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I136" s="12"/>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I138" s="12"/>
+    </row>
+    <row r="140" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I140" s="12"/>
+    </row>
+    <row r="200" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H200" s="13"/>
+    </row>
+    <row r="201" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H201" s="13"/>
+    </row>
+    <row r="202" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H202" s="13"/>
+    </row>
+    <row r="203" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H203" s="13"/>
+    </row>
+    <row r="204" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H204" s="13"/>
+    </row>
+    <row r="205" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H205" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2045,47 +6308,89 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="3"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42181</v>
+      </c>
+      <c r="D2" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42181</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="3">
+        <v>42207</v>
+      </c>
+      <c r="D4" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42207</v>
+      </c>
+      <c r="D5" s="5">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2095,42 +6400,89 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
+      <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42181</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="5">
+        <v>250</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
+      <c r="A3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42181</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
+      <c r="A4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="5">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2147,32 +6499,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="6"/>
+    <col min="1" max="1" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>44259</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>44</v>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="A4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2202,19 +6554,19 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>45</v>
+        <v>65</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2231,7 +6583,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H25" sqref="H24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2243,201 +6595,221 @@
     <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="F3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>64</v>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2455,7 +6827,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="2" customWidth="1"/>
     <col min="3" max="5" width="13.1796875" customWidth="1"/>
     <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2464,7 +6836,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C1" t="s">
@@ -2473,28 +6845,28 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="7">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5">
         <v>-27.540875</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>152.33902599999999</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>70</v>
+      <c r="F2" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2507,8 +6879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2518,77 +6890,80 @@
     <col min="3" max="3" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="71.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-27.540875</v>
+      </c>
+      <c r="E2" s="5">
+        <v>152.33902599999999</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="7">
+      <c r="B3" s="15"/>
+      <c r="C3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="5">
         <v>-27.540875</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E3" s="5">
         <v>152.33902599999999</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="7">
-        <v>-27.540875</v>
-      </c>
-      <c r="E3" s="7">
-        <v>152.33902599999999</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>73</v>
+      <c r="F3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2602,7 +6977,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2611,42 +6986,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>75</v>
+      <c r="A2" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>77</v>
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="5"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2658,9 +7033,9 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G21" sqref="G21"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2668,7 +7043,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
@@ -2688,7 +7063,7 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
@@ -2709,103 +7084,103 @@
       <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3">
+        <v>42177</v>
+      </c>
+      <c r="F2" s="5">
+        <v>150</v>
+      </c>
+      <c r="G2" s="5">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5">
+        <v>250</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="5">
-        <v>42145</v>
-      </c>
-      <c r="F2" s="7">
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3">
+        <v>42177</v>
+      </c>
+      <c r="F3" s="5">
         <v>150</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G3" s="5">
         <v>50</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H3" s="5">
         <v>250</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="5">
-        <v>42177</v>
-      </c>
-      <c r="F3" s="7">
-        <v>150</v>
-      </c>
-      <c r="G3" s="7">
-        <v>50</v>
-      </c>
-      <c r="H3" s="7">
-        <v>250</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>83</v>
+      <c r="I3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E4" s="8"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E5" s="8"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E6" s="8"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E7" s="8"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E8" s="8"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E9" s="8"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E10" s="8"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E11" s="8"/>
+      <c r="E11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2814,57 +7189,467 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G21" sqref="G21"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" style="9"/>
-    <col min="10" max="10" width="13.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="4.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>34</v>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>17</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>18</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5">
+        <v>19</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>21</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5">
+        <v>22</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5">
+        <v>23</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
